--- a/modelos/OBACON4426113/OBACON4426113_Sell Out_metricas.xlsx
+++ b/modelos/OBACON4426113/OBACON4426113_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45017</v>
       </c>
       <c r="B2" t="n">
-        <v>80.69316279244184</v>
+        <v>80.69316279242408</v>
       </c>
       <c r="C2" t="n">
-        <v>49.30304022532321</v>
+        <v>47.13815792702167</v>
       </c>
       <c r="D2" t="n">
-        <v>115.9261740538931</v>
+        <v>113.5727207957595</v>
       </c>
       <c r="E2" t="n">
         <v>44</v>
@@ -496,13 +496,13 @@
         <v>45019</v>
       </c>
       <c r="B3" t="n">
-        <v>100.5134257811032</v>
+        <v>100.5134257810852</v>
       </c>
       <c r="C3" t="n">
-        <v>68.20546539444783</v>
+        <v>69.79614170567754</v>
       </c>
       <c r="D3" t="n">
-        <v>129.8929206847642</v>
+        <v>132.3145582124716</v>
       </c>
       <c r="E3" t="n">
         <v>120</v>
@@ -516,13 +516,13 @@
         <v>45027</v>
       </c>
       <c r="B4" t="n">
-        <v>129.8192951256527</v>
+        <v>129.8192951256594</v>
       </c>
       <c r="C4" t="n">
-        <v>98.04901313241292</v>
+        <v>99.7130674099854</v>
       </c>
       <c r="D4" t="n">
-        <v>163.4132340561528</v>
+        <v>163.8845302305497</v>
       </c>
       <c r="E4" t="n">
         <v>151</v>
@@ -536,13 +536,13 @@
         <v>45033</v>
       </c>
       <c r="B5" t="n">
-        <v>102.0705646283586</v>
+        <v>102.0705646283609</v>
       </c>
       <c r="C5" t="n">
-        <v>71.45443343502828</v>
+        <v>68.57093722835894</v>
       </c>
       <c r="D5" t="n">
-        <v>134.821862749717</v>
+        <v>132.627625598104</v>
       </c>
       <c r="E5" t="n">
         <v>138</v>
@@ -556,13 +556,13 @@
         <v>45040</v>
       </c>
       <c r="B6" t="n">
-        <v>107.5509626032905</v>
+        <v>107.5509626032935</v>
       </c>
       <c r="C6" t="n">
-        <v>73.28568489253881</v>
+        <v>76.64218926598464</v>
       </c>
       <c r="D6" t="n">
-        <v>140.0551056727113</v>
+        <v>138.513168369893</v>
       </c>
       <c r="E6" t="n">
         <v>102</v>
@@ -576,13 +576,13 @@
         <v>45048</v>
       </c>
       <c r="B7" t="n">
-        <v>137.3443334365415</v>
+        <v>137.3443334913131</v>
       </c>
       <c r="C7" t="n">
-        <v>103.8487034240527</v>
+        <v>101.6415646653477</v>
       </c>
       <c r="D7" t="n">
-        <v>168.8181121195251</v>
+        <v>166.9587179860697</v>
       </c>
       <c r="E7" t="n">
         <v>186</v>
@@ -596,13 +596,13 @@
         <v>45054</v>
       </c>
       <c r="B8" t="n">
-        <v>109.289380567906</v>
+        <v>109.289380567918</v>
       </c>
       <c r="C8" t="n">
-        <v>74.02296629120359</v>
+        <v>75.05155687516219</v>
       </c>
       <c r="D8" t="n">
-        <v>140.8441310901298</v>
+        <v>143.9384092800253</v>
       </c>
       <c r="E8" t="n">
         <v>136</v>
@@ -616,13 +616,13 @@
         <v>45063</v>
       </c>
       <c r="B9" t="n">
-        <v>91.02285838748125</v>
+        <v>91.02285838749593</v>
       </c>
       <c r="C9" t="n">
-        <v>57.42515925267507</v>
+        <v>55.04958385229304</v>
       </c>
       <c r="D9" t="n">
-        <v>125.9348200335899</v>
+        <v>125.2104827146694</v>
       </c>
       <c r="E9" t="n">
         <v>48</v>
@@ -697,22 +697,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1346.388195712638</v>
+        <v>1346.388195711335</v>
       </c>
       <c r="C2" t="n">
-        <v>36.69316279244184</v>
+        <v>36.69316279242408</v>
       </c>
       <c r="D2" t="n">
-        <v>36.69316279244184</v>
+        <v>36.69316279242408</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8339355180100418</v>
+        <v>0.8339355180096381</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8339355180100418</v>
+        <v>0.8339355180096381</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5885352808560882</v>
+        <v>0.588535280855887</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -723,22 +723,22 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>603.7303192957045</v>
+        <v>603.7303192956865</v>
       </c>
       <c r="C3" t="n">
-        <v>24.5709242662075</v>
+        <v>24.57092426620713</v>
       </c>
       <c r="D3" t="n">
-        <v>21.91939790648067</v>
+        <v>21.91939790648235</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1683922903214662</v>
+        <v>0.1683922903214849</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1793948659810432</v>
+        <v>0.179394865981074</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1867075984973082</v>
+        <v>0.186707598497327</v>
       </c>
       <c r="H3" t="n">
         <v>0.75</v>
@@ -749,22 +749,22 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>1407.998073854325</v>
+        <v>1407.998071189235</v>
       </c>
       <c r="C4" t="n">
-        <v>37.5233004126013</v>
+        <v>37.52330037708884</v>
       </c>
       <c r="D4" t="n">
-        <v>34.91818571890288</v>
+        <v>34.91818569151376</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2009295869420855</v>
+        <v>0.200929586794828</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2009295869420855</v>
+        <v>0.200929586794828</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2259010015034675</v>
+        <v>0.2259010013085618</v>
       </c>
       <c r="H4" t="n">
         <v>0.5</v>
@@ -775,22 +775,22 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>1850.966343829266</v>
+        <v>1850.966343830529</v>
       </c>
       <c r="C5" t="n">
-        <v>43.02285838748125</v>
+        <v>43.02285838749593</v>
       </c>
       <c r="D5" t="n">
-        <v>43.02285838748125</v>
+        <v>43.02285838749593</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8963095497391927</v>
+        <v>0.8963095497394985</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8963095497391927</v>
+        <v>0.8963095497394985</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6189321509642529</v>
+        <v>0.6189321509643987</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>

--- a/modelos/OBACON4426113/OBACON4426113_Sell Out_metricas.xlsx
+++ b/modelos/OBACON4426113/OBACON4426113_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45017</v>
       </c>
       <c r="B2" t="n">
-        <v>80.69316279242408</v>
+        <v>80.69316279248758</v>
       </c>
       <c r="C2" t="n">
-        <v>47.13815792702167</v>
+        <v>45.37095521385783</v>
       </c>
       <c r="D2" t="n">
-        <v>113.5727207957595</v>
+        <v>111.8442852589407</v>
       </c>
       <c r="E2" t="n">
         <v>44</v>
@@ -496,13 +496,13 @@
         <v>45019</v>
       </c>
       <c r="B3" t="n">
-        <v>100.5134257810852</v>
+        <v>100.5134257811495</v>
       </c>
       <c r="C3" t="n">
-        <v>69.79614170567754</v>
+        <v>68.01354869943661</v>
       </c>
       <c r="D3" t="n">
-        <v>132.3145582124716</v>
+        <v>132.5300054781854</v>
       </c>
       <c r="E3" t="n">
         <v>120</v>
@@ -516,13 +516,13 @@
         <v>45027</v>
       </c>
       <c r="B4" t="n">
-        <v>129.8192951256594</v>
+        <v>129.8192951256606</v>
       </c>
       <c r="C4" t="n">
-        <v>99.7130674099854</v>
+        <v>96.36484437697435</v>
       </c>
       <c r="D4" t="n">
-        <v>163.8845302305497</v>
+        <v>161.2137876580814</v>
       </c>
       <c r="E4" t="n">
         <v>151</v>
@@ -536,13 +536,13 @@
         <v>45033</v>
       </c>
       <c r="B5" t="n">
-        <v>102.0705646283609</v>
+        <v>102.070564628362</v>
       </c>
       <c r="C5" t="n">
-        <v>68.57093722835894</v>
+        <v>71.35486374116823</v>
       </c>
       <c r="D5" t="n">
-        <v>132.627625598104</v>
+        <v>136.8112274418131</v>
       </c>
       <c r="E5" t="n">
         <v>138</v>
@@ -556,13 +556,13 @@
         <v>45040</v>
       </c>
       <c r="B6" t="n">
-        <v>107.5509626032935</v>
+        <v>107.5509626032901</v>
       </c>
       <c r="C6" t="n">
-        <v>76.64218926598464</v>
+        <v>73.30608228376499</v>
       </c>
       <c r="D6" t="n">
-        <v>138.513168369893</v>
+        <v>142.213867123105</v>
       </c>
       <c r="E6" t="n">
         <v>102</v>
@@ -576,13 +576,13 @@
         <v>45048</v>
       </c>
       <c r="B7" t="n">
-        <v>137.3443334913131</v>
+        <v>137.3443333681867</v>
       </c>
       <c r="C7" t="n">
-        <v>101.6415646653477</v>
+        <v>104.9684716579281</v>
       </c>
       <c r="D7" t="n">
-        <v>166.9587179860697</v>
+        <v>170.3357833323875</v>
       </c>
       <c r="E7" t="n">
         <v>186</v>
@@ -596,13 +596,13 @@
         <v>45054</v>
       </c>
       <c r="B8" t="n">
-        <v>109.289380567918</v>
+        <v>109.2893805678196</v>
       </c>
       <c r="C8" t="n">
-        <v>75.05155687516219</v>
+        <v>77.19936603977568</v>
       </c>
       <c r="D8" t="n">
-        <v>143.9384092800253</v>
+        <v>142.5772829775215</v>
       </c>
       <c r="E8" t="n">
         <v>136</v>
@@ -616,13 +616,13 @@
         <v>45063</v>
       </c>
       <c r="B9" t="n">
-        <v>91.02285838749593</v>
+        <v>91.02285838748659</v>
       </c>
       <c r="C9" t="n">
-        <v>55.04958385229304</v>
+        <v>55.62477852441719</v>
       </c>
       <c r="D9" t="n">
-        <v>125.2104827146694</v>
+        <v>123.3841287462395</v>
       </c>
       <c r="E9" t="n">
         <v>48</v>
@@ -697,22 +697,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1346.388195711335</v>
+        <v>1346.388195715995</v>
       </c>
       <c r="C2" t="n">
-        <v>36.69316279242408</v>
+        <v>36.69316279248758</v>
       </c>
       <c r="D2" t="n">
-        <v>36.69316279242408</v>
+        <v>36.69316279248758</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8339355180096381</v>
+        <v>0.8339355180110815</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8339355180096381</v>
+        <v>0.8339355180110815</v>
       </c>
       <c r="G2" t="n">
-        <v>0.588535280855887</v>
+        <v>0.588535280856606</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -723,22 +723,22 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>603.7303192956865</v>
+        <v>603.7303192963454</v>
       </c>
       <c r="C3" t="n">
-        <v>24.57092426620713</v>
+        <v>24.57092426622054</v>
       </c>
       <c r="D3" t="n">
-        <v>21.91939790648235</v>
+        <v>21.91939790648976</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1683922903214849</v>
+        <v>0.1683922903215215</v>
       </c>
       <c r="F3" t="n">
-        <v>0.179394865981074</v>
+        <v>0.1793948659811678</v>
       </c>
       <c r="G3" t="n">
-        <v>0.186707598497327</v>
+        <v>0.1867075984973803</v>
       </c>
       <c r="H3" t="n">
         <v>0.75</v>
@@ -749,22 +749,22 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>1407.998071189235</v>
+        <v>1407.99807718001</v>
       </c>
       <c r="C4" t="n">
-        <v>37.52330037708884</v>
+        <v>37.52330045691623</v>
       </c>
       <c r="D4" t="n">
-        <v>34.91818569151376</v>
+        <v>34.91818575307637</v>
       </c>
       <c r="E4" t="n">
-        <v>0.200929586794828</v>
+        <v>0.200929587125809</v>
       </c>
       <c r="F4" t="n">
-        <v>0.200929586794828</v>
+        <v>0.200929587125809</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2259010013085618</v>
+        <v>0.2259010017466476</v>
       </c>
       <c r="H4" t="n">
         <v>0.5</v>
@@ -775,22 +775,22 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>1850.966343830529</v>
+        <v>1850.966343829725</v>
       </c>
       <c r="C5" t="n">
-        <v>43.02285838749593</v>
+        <v>43.02285838748659</v>
       </c>
       <c r="D5" t="n">
-        <v>43.02285838749593</v>
+        <v>43.02285838748659</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8963095497394985</v>
+        <v>0.896309549739304</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8963095497394985</v>
+        <v>0.896309549739304</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6189321509643987</v>
+        <v>0.618932150964306</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>

--- a/modelos/OBACON4426113/OBACON4426113_Sell Out_metricas.xlsx
+++ b/modelos/OBACON4426113/OBACON4426113_Sell Out_metricas.xlsx
@@ -479,10 +479,10 @@
         <v>80.69316279248758</v>
       </c>
       <c r="C2" t="n">
-        <v>45.37095521385783</v>
+        <v>49.18539922072883</v>
       </c>
       <c r="D2" t="n">
-        <v>111.8442852589407</v>
+        <v>115.8652489146682</v>
       </c>
       <c r="E2" t="n">
         <v>44</v>
@@ -499,10 +499,10 @@
         <v>100.5134257811495</v>
       </c>
       <c r="C3" t="n">
-        <v>68.01354869943661</v>
+        <v>64.42459364327362</v>
       </c>
       <c r="D3" t="n">
-        <v>132.5300054781854</v>
+        <v>133.1252811345739</v>
       </c>
       <c r="E3" t="n">
         <v>120</v>
@@ -519,10 +519,10 @@
         <v>129.8192951256606</v>
       </c>
       <c r="C4" t="n">
-        <v>96.36484437697435</v>
+        <v>96.79893672832691</v>
       </c>
       <c r="D4" t="n">
-        <v>161.2137876580814</v>
+        <v>162.4570573915389</v>
       </c>
       <c r="E4" t="n">
         <v>151</v>
@@ -539,10 +539,10 @@
         <v>102.070564628362</v>
       </c>
       <c r="C5" t="n">
-        <v>71.35486374116823</v>
+        <v>71.3213352801863</v>
       </c>
       <c r="D5" t="n">
-        <v>136.8112274418131</v>
+        <v>135.7754800622485</v>
       </c>
       <c r="E5" t="n">
         <v>138</v>
@@ -559,10 +559,10 @@
         <v>107.5509626032901</v>
       </c>
       <c r="C6" t="n">
-        <v>73.30608228376499</v>
+        <v>75.75644588388444</v>
       </c>
       <c r="D6" t="n">
-        <v>142.213867123105</v>
+        <v>138.0659961396696</v>
       </c>
       <c r="E6" t="n">
         <v>102</v>
@@ -579,10 +579,10 @@
         <v>137.3443333681867</v>
       </c>
       <c r="C7" t="n">
-        <v>104.9684716579281</v>
+        <v>106.5107393212782</v>
       </c>
       <c r="D7" t="n">
-        <v>170.3357833323875</v>
+        <v>170.5329291452742</v>
       </c>
       <c r="E7" t="n">
         <v>186</v>
@@ -599,10 +599,10 @@
         <v>109.2893805678196</v>
       </c>
       <c r="C8" t="n">
-        <v>77.19936603977568</v>
+        <v>76.11089801950305</v>
       </c>
       <c r="D8" t="n">
-        <v>142.5772829775215</v>
+        <v>143.1078776222582</v>
       </c>
       <c r="E8" t="n">
         <v>136</v>
@@ -619,10 +619,10 @@
         <v>91.02285838748659</v>
       </c>
       <c r="C9" t="n">
-        <v>55.62477852441719</v>
+        <v>56.82856469587346</v>
       </c>
       <c r="D9" t="n">
-        <v>123.3841287462395</v>
+        <v>124.5647123731539</v>
       </c>
       <c r="E9" t="n">
         <v>48</v>
